--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\PycharmProjects\MULTIMODAL-FORECASTING-MODEL-FOR-STOCK-PRICE-PREDICTION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BA073F-053B-49DA-A262-37DA3F4429C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C987C1-67E1-427D-B74A-5750AF0DD0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C42DFF4-176E-4CE1-9580-4A738A9BC40D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>ARIMA</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>LSTM+Attention + ARIMA + GARCH</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Mamba</t>
+  </si>
+  <si>
+    <t>Arima + Garch</t>
+  </si>
+  <si>
+    <t>Arima + Garch + Sentiment Scores</t>
+  </si>
+  <si>
+    <t>Arima + Garch + Sentiment Scores + News vectors</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Single Layer</t>
+  </si>
+  <si>
+    <t>Multilayer</t>
+  </si>
+  <si>
+    <t>Bidirectional</t>
   </si>
 </sst>
 </file>
@@ -84,12 +114,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,12 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,27 +490,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BCEAEC-7ADE-4671-8EFD-C0FDDE92E385}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="1" max="8" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -495,74 +541,305 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2.4603199999999998</v>
+        <v>2.9986999999999999</v>
       </c>
       <c r="B7">
-        <v>1.56854</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="C7">
-        <v>1.6604000000000001</v>
+        <v>1.3789</v>
       </c>
       <c r="D7">
-        <v>0.90513999999999994</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <v>1</v>
+      <c r="A8">
+        <v>1.3533999999999999</v>
+      </c>
+      <c r="B8">
+        <v>1.1633</v>
+      </c>
+      <c r="C8">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="B9">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="B10">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.9986999999999999</v>
+      </c>
+      <c r="B16">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.3789</v>
+      </c>
+      <c r="D16">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.3533999999999999</v>
+      </c>
+      <c r="B17">
+        <v>1.1633</v>
+      </c>
+      <c r="C17">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.9986999999999999</v>
+      </c>
+      <c r="B21">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.3789</v>
+      </c>
+      <c r="D21">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.3533999999999999</v>
+      </c>
+      <c r="B22">
+        <v>1.1633</v>
+      </c>
+      <c r="C22">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\PycharmProjects\MULTIMODAL-FORECASTING-MODEL-FOR-STOCK-PRICE-PREDICTION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C987C1-67E1-427D-B74A-5750AF0DD0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA79BC3-C59D-4E7A-AB73-860652BA51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C42DFF4-176E-4CE1-9580-4A738A9BC40D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>ARIMA</t>
   </si>
@@ -99,6 +99,60 @@
   </si>
   <si>
     <t>Bidirectional</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Scaled-Dot</t>
+  </si>
+  <si>
+    <t>Multi-head</t>
+  </si>
+  <si>
+    <t>Historic price</t>
+  </si>
+  <si>
+    <t>Price+Arima+garch</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Single layer</t>
+  </si>
+  <si>
+    <t>LSTM-&gt;FC-&gt;LSTM-&gt;FC</t>
+  </si>
+  <si>
+    <t>LSTM-&gt;LSTM-&gt;FC-&gt;LSTM-&gt;LSTM-&gt;FC</t>
+  </si>
+  <si>
+    <t>BiLSTM-&gt;fc-&gt;BiLSTM-&gt;fc</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>The combination of LSTM, ARIMA, and GARCH models seems to provide decent performance based on the provided evaluation metrics.</t>
+  </si>
+  <si>
+    <t>Adding XGBoost as a fine-tuning step improves the performance of the models in some cases.</t>
+  </si>
+  <si>
+    <t>Multilayer configurations generally perform better compared to single-layer configurations, indicating the importance of deeper architectures.</t>
+  </si>
+  <si>
+    <t>Bidirectional LSTM shows competitive performance, suggesting the significance of capturing both past and future information in the context of stock price prediction.</t>
   </si>
 </sst>
 </file>
@@ -114,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +187,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -156,6 +222,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BCEAEC-7ADE-4671-8EFD-C0FDDE92E385}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,276 +641,555 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.6143000000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.208</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1.6534</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.266</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.6257999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.196</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1.865</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.365</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1.732</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.1903999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5.085</v>
+      </c>
+      <c r="B37">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="C37">
+        <v>1.74</v>
+      </c>
+      <c r="D37">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="B38">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C38">
+        <v>0.745</v>
+      </c>
+      <c r="D38">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>2.9986999999999999</v>
       </c>
-      <c r="B7">
+      <c r="B54">
         <v>1.7310000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C54">
         <v>1.3789</v>
       </c>
-      <c r="D7">
+      <c r="D54">
         <v>0.88429999999999997</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>1.3533999999999999</v>
       </c>
-      <c r="B8">
+      <c r="B55">
         <v>1.1633</v>
       </c>
-      <c r="C8">
+      <c r="C55">
         <v>0.86629999999999996</v>
       </c>
-      <c r="D8">
+      <c r="D55">
         <v>0.94010000000000005</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3.9860000000000002</v>
-      </c>
-      <c r="B9">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.9444444444444448E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="B10">
-        <v>1.17E-2</v>
-      </c>
-      <c r="C10">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2.9986999999999999</v>
-      </c>
-      <c r="B16">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="C16">
-        <v>1.3789</v>
-      </c>
-      <c r="D16">
-        <v>0.88429999999999997</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1.3533999999999999</v>
-      </c>
-      <c r="B17">
-        <v>1.1633</v>
-      </c>
-      <c r="C17">
-        <v>0.86629999999999996</v>
-      </c>
-      <c r="D17">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2.9986999999999999</v>
-      </c>
-      <c r="B21">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="C21">
-        <v>1.3789</v>
-      </c>
-      <c r="D21">
-        <v>0.88429999999999997</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1.3533999999999999</v>
-      </c>
-      <c r="B22">
-        <v>1.1633</v>
-      </c>
-      <c r="C22">
-        <v>0.86629999999999996</v>
-      </c>
-      <c r="D22">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\PycharmProjects\MULTIMODAL-FORECASTING-MODEL-FOR-STOCK-PRICE-PREDICTION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA79BC3-C59D-4E7A-AB73-860652BA51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D7CC0-D050-4E46-AEF8-F95E049F0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C42DFF4-176E-4CE1-9580-4A738A9BC40D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
   <si>
     <t>ARIMA</t>
   </si>
@@ -71,27 +71,12 @@
     <t>Runtime</t>
   </si>
   <si>
-    <t>LSTM+Attention + ARIMA + GARCH</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Mamba</t>
   </si>
   <si>
-    <t>Arima + Garch</t>
-  </si>
-  <si>
-    <t>Arima + Garch + Sentiment Scores</t>
-  </si>
-  <si>
-    <t>Arima + Garch + Sentiment Scores + News vectors</t>
-  </si>
-  <si>
-    <t>N/a</t>
-  </si>
-  <si>
     <t>Single Layer</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>Multi-head</t>
   </si>
   <si>
-    <t>Historic price</t>
-  </si>
-  <si>
     <t>Price+Arima+garch</t>
   </si>
   <si>
@@ -153,6 +135,39 @@
   </si>
   <si>
     <t>Bidirectional LSTM shows competitive performance, suggesting the significance of capturing both past and future information in the context of stock price prediction.</t>
+  </si>
+  <si>
+    <t>Price+Arima+Garch</t>
+  </si>
+  <si>
+    <t>Mark1</t>
+  </si>
+  <si>
+    <t>Mark2</t>
+  </si>
+  <si>
+    <t>Mark3</t>
+  </si>
+  <si>
+    <t>Price+Sentiment</t>
+  </si>
+  <si>
+    <t>Price+Arima+garch+Sentiment</t>
+  </si>
+  <si>
+    <t>Price+Sentiment+news vectors</t>
+  </si>
+  <si>
+    <t>Price+Sentiment+news vectors + Arima + garch</t>
+  </si>
+  <si>
+    <t>100 epochs</t>
+  </si>
+  <si>
+    <t>3 sec</t>
+  </si>
+  <si>
+    <t>CNN-Attention + ARIMA + GARCH</t>
   </si>
 </sst>
 </file>
@@ -560,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BCEAEC-7ADE-4671-8EFD-C0FDDE92E385}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +586,7 @@
     <col min="1" max="8" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +597,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -596,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1000000000000001E-4</v>
       </c>
@@ -610,7 +625,7 @@
         <v>0.90513999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -620,8 +635,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -641,10 +659,13 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2.6059999999999999</v>
       </c>
@@ -658,16 +679,19 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1.96</v>
       </c>
@@ -681,16 +705,19 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4.4009999999999998</v>
       </c>
@@ -704,16 +731,19 @@
         <v>0.83</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1.6534</v>
       </c>
@@ -727,16 +757,19 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2.89</v>
       </c>
@@ -750,16 +783,19 @@
         <v>0.88</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.9379999999999999</v>
       </c>
@@ -773,16 +809,19 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2.6429999999999998</v>
       </c>
@@ -796,16 +835,19 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1.865</v>
       </c>
@@ -819,16 +861,19 @@
         <v>0.92</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4.1849999999999996</v>
       </c>
@@ -842,16 +887,19 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1.732</v>
       </c>
@@ -865,16 +913,19 @@
         <v>0.93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2.5670000000000002</v>
       </c>
@@ -888,16 +939,19 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1.77</v>
       </c>
@@ -911,76 +965,79 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -988,8 +1045,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -1003,189 +1063,458 @@
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="B37">
+        <v>1.679</v>
+      </c>
+      <c r="C37">
+        <v>1.2499</v>
+      </c>
+      <c r="D37">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E37" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>5.085</v>
-      </c>
-      <c r="B37">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="C37">
-        <v>1.74</v>
-      </c>
-      <c r="D37">
-        <v>0.80389999999999995</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.91300000000000003</v>
+        <v>2.38</v>
       </c>
       <c r="B38">
-        <v>0.95499999999999996</v>
+        <v>1.5436000000000001</v>
       </c>
       <c r="C38">
-        <v>0.745</v>
+        <v>1.2092000000000001</v>
       </c>
       <c r="D38">
-        <v>0.96399999999999997</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="B39">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="C39">
+        <v>1.5709</v>
+      </c>
+      <c r="D39">
+        <v>0.83720000000000006</v>
+      </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1.9359</v>
+      </c>
+      <c r="B40">
+        <v>1.391</v>
+      </c>
+      <c r="C40">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.93200000000000005</v>
+      </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B41">
+        <v>2.21</v>
+      </c>
+      <c r="C41">
+        <v>1.698</v>
+      </c>
+      <c r="D41">
+        <v>0.81</v>
+      </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.085</v>
+      </c>
+      <c r="B42">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1.7402</v>
+      </c>
+      <c r="D42">
+        <v>0.80391999999999997</v>
+      </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B43">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C43">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="B44">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="D44">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2.9986999999999999</v>
-      </c>
-      <c r="B54">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="C54">
-        <v>1.3789</v>
-      </c>
-      <c r="D54">
-        <v>0.88429999999999997</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1.3533999999999999</v>
-      </c>
-      <c r="B55">
-        <v>1.1633</v>
-      </c>
-      <c r="C55">
-        <v>0.86629999999999996</v>
-      </c>
-      <c r="D55">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>16</v>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="B58">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="C58">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.48</v>
+      </c>
+      <c r="B59">
+        <v>1.575</v>
+      </c>
+      <c r="C59">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="D59">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.2202</v>
+      </c>
+      <c r="B60">
+        <v>1.1045</v>
+      </c>
+      <c r="C60">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="D60">
+        <v>0.95147999999999999</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1.2155</v>
+      </c>
+      <c r="B61">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.9516</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.22</v>
+      </c>
+      <c r="B62">
+        <v>1.1045</v>
+      </c>
+      <c r="C62">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="D62">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.2202</v>
+      </c>
+      <c r="B63">
+        <v>1.1045</v>
+      </c>
+      <c r="C63">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="D63">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A56:G56"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\PycharmProjects\MULTIMODAL-FORECASTING-MODEL-FOR-STOCK-PRICE-PREDICTION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D7CC0-D050-4E46-AEF8-F95E049F0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0701EA19-CC5B-4C7F-83E5-E3CBB19E1405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C42DFF4-176E-4CE1-9580-4A738A9BC40D}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BCEAEC-7ADE-4671-8EFD-C0FDDE92E385}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,13 +613,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.1000000000000001E-4</v>
+        <v>2.46</v>
       </c>
       <c r="B3">
-        <v>1.444E-2</v>
+        <v>1.56</v>
       </c>
       <c r="C3">
-        <v>1.073E-2</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="D3">
         <v>0.90513999999999994</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1.0185999999999999</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="B44">
-        <v>1.0089999999999999</v>
+        <v>1.137</v>
       </c>
       <c r="C44">
-        <v>0.75029999999999997</v>
+        <v>0.85119999999999996</v>
       </c>
       <c r="D44">
-        <v>0.96499999999999997</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -1284,6 +1284,18 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.0087000000000002</v>
+      </c>
+      <c r="B45">
+        <v>1.7344999999999999</v>
+      </c>
+      <c r="C45">
+        <v>1.306162</v>
+      </c>
+      <c r="D45">
+        <v>0.88390000000000002</v>
+      </c>
       <c r="E45" t="s">
         <v>33</v>
       </c>
@@ -1298,6 +1310,18 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.851</v>
+      </c>
+      <c r="B46">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="C46">
+        <v>1.2706</v>
+      </c>
+      <c r="D46">
+        <v>0.89</v>
+      </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
@@ -1312,6 +1336,18 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1.0774999999999999</v>
+      </c>
+      <c r="B47">
+        <v>1.038</v>
+      </c>
+      <c r="C47">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D47">
+        <v>0.95130000000000003</v>
+      </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
@@ -1326,6 +1362,18 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="B48">
+        <v>1.198</v>
+      </c>
+      <c r="C48">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="D48">
+        <v>0.95730000000000004</v>
+      </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
